--- a/embedded_cl_in_1st_layer_of_ice_zero_water_to_cl_saop.xlsx
+++ b/embedded_cl_in_1st_layer_of_ice_zero_water_to_cl_saop.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/Thesis_graphs_binder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/HCl_project_graphs_binder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E2FBB9-0559-B24A-8E78-2F034BE112F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DEE376-ACAD-A34F-96D8-84F54CFFF766}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1340" yWindow="940" windowWidth="21640" windowHeight="14420" xr2:uid="{41A0B090-B6CC-EE4B-87B1-C158C411CEA8}"/>
   </bookViews>
@@ -394,7 +394,7 @@
   <dimension ref="A4:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -417,6 +417,12 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2759.7575790000001</v>
+      </c>
+      <c r="B5">
+        <v>249.23779400000001</v>
+      </c>
       <c r="C5">
         <v>188.53141350000001</v>
       </c>
@@ -428,6 +434,12 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2758.560023</v>
+      </c>
+      <c r="B6">
+        <v>248.0304691</v>
+      </c>
       <c r="C6">
         <v>187.32732680000001</v>
       </c>
@@ -439,6 +451,12 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2758.4131649999999</v>
+      </c>
+      <c r="B7">
+        <v>247.8835297</v>
+      </c>
       <c r="C7">
         <v>187.1708635</v>
       </c>
@@ -450,6 +468,12 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2759.8135520000001</v>
+      </c>
+      <c r="B8">
+        <v>249.27926350000001</v>
+      </c>
       <c r="C8">
         <v>188.57222999999999</v>
       </c>
@@ -461,6 +485,12 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2759.5015239999998</v>
+      </c>
+      <c r="B9">
+        <v>248.9732731</v>
+      </c>
       <c r="C9">
         <v>188.25930349999999</v>
       </c>
@@ -472,6 +502,12 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2759.5711019999999</v>
+      </c>
+      <c r="B10">
+        <v>249.0488517</v>
+      </c>
       <c r="C10">
         <v>188.3409365</v>
       </c>
@@ -483,6 +519,12 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2759.0370320000002</v>
+      </c>
+      <c r="B11">
+        <v>248.50312690000001</v>
+      </c>
       <c r="C11">
         <v>187.7967165</v>
       </c>
@@ -494,6 +536,12 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2759.7899600000001</v>
+      </c>
+      <c r="B12">
+        <v>249.2539573</v>
+      </c>
       <c r="C12">
         <v>188.545019</v>
       </c>
@@ -505,6 +553,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2758.291995</v>
+      </c>
+      <c r="B13">
+        <v>247.7483781</v>
+      </c>
       <c r="C13">
         <v>187.0348085</v>
       </c>
@@ -516,6 +570,12 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2759.3015230000001</v>
+      </c>
+      <c r="B14">
+        <v>248.77817289999999</v>
+      </c>
       <c r="C14">
         <v>188.0688265</v>
       </c>
@@ -527,6 +587,12 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2758.8650579999999</v>
+      </c>
+      <c r="B15">
+        <v>248.3392187</v>
+      </c>
       <c r="C15">
         <v>187.63345050000001</v>
       </c>
@@ -538,6 +604,12 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2759.2593459999998</v>
+      </c>
+      <c r="B16">
+        <v>248.7297374</v>
+      </c>
       <c r="C16">
         <v>188.01440450000001</v>
       </c>
@@ -548,7 +620,13 @@
         <v>187.18446900000001</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2758.38805</v>
+      </c>
+      <c r="B17">
+        <v>247.85348870000001</v>
+      </c>
       <c r="C17">
         <v>187.1436525</v>
       </c>
@@ -559,7 +637,13 @@
         <v>186.313717</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2759.5090070000001</v>
+      </c>
+      <c r="B18">
+        <v>248.9718881</v>
+      </c>
       <c r="C18">
         <v>188.25930349999999</v>
       </c>
@@ -570,7 +654,13 @@
         <v>187.42936800000001</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2760.1874859999998</v>
+      </c>
+      <c r="B19">
+        <v>249.66849780000001</v>
+      </c>
       <c r="C19">
         <v>188.9667895</v>
       </c>
@@ -581,7 +671,13 @@
         <v>188.136854</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2758.3600219999998</v>
+      </c>
+      <c r="B20">
+        <v>247.8151484</v>
+      </c>
       <c r="C20">
         <v>187.11644150000001</v>
       </c>
@@ -592,7 +688,13 @@
         <v>186.286506</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2759.829416</v>
+      </c>
+      <c r="B21">
+        <v>249.30228399999999</v>
+      </c>
       <c r="C21">
         <v>188.5858355</v>
       </c>
@@ -603,7 +705,13 @@
         <v>187.7559</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2757.5006990000002</v>
+      </c>
+      <c r="B22">
+        <v>246.9629544</v>
+      </c>
       <c r="C22">
         <v>186.25929500000001</v>
       </c>
@@ -614,7 +722,13 @@
         <v>185.41575399999999</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2758.6724049999998</v>
+      </c>
+      <c r="B23">
+        <v>248.14187089999999</v>
+      </c>
       <c r="C23">
         <v>187.44297349999999</v>
       </c>
@@ -625,7 +739,13 @@
         <v>186.61303799999999</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2759.6117279999999</v>
+      </c>
+      <c r="B24">
+        <v>249.0811946</v>
+      </c>
       <c r="C24">
         <v>188.36814749999999</v>
       </c>
@@ -636,7 +756,13 @@
         <v>187.53821199999999</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2759.6416599999998</v>
+      </c>
+      <c r="B25">
+        <v>249.1082696</v>
+      </c>
       <c r="C25">
         <v>188.39535849999999</v>
       </c>
@@ -647,7 +773,13 @@
         <v>187.56542300000001</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2757.511039</v>
+      </c>
+      <c r="B26">
+        <v>246.9621108</v>
+      </c>
       <c r="C26">
         <v>186.2456895</v>
       </c>
@@ -658,7 +790,13 @@
         <v>185.41575399999999</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2759.2797540000001</v>
+      </c>
+      <c r="B27">
+        <v>248.74010480000001</v>
+      </c>
       <c r="C27">
         <v>188.04161550000001</v>
       </c>
@@ -669,7 +807,13 @@
         <v>187.21168</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2754.879735</v>
+      </c>
+      <c r="B28">
+        <v>244.50743370000001</v>
+      </c>
       <c r="C28">
         <v>183.79669949999999</v>
       </c>
@@ -680,7 +824,13 @@
         <v>182.96676400000001</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2759.8348590000001</v>
+      </c>
+      <c r="B29">
+        <v>249.304597</v>
+      </c>
       <c r="C29">
         <v>188.59944100000001</v>
       </c>
